--- a/msg_reference.xlsx
+++ b/msg_reference.xlsx
@@ -767,7 +767,7 @@
     <t xml:space="preserve">Down position (negative altitude) in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_x</t>
+    <t xml:space="preserve">VehicleLocalPosition_delta_xy_0</t>
   </si>
   <si>
     <t xml:space="preserve">delta_xy_0</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">Amount of lateral shift of position estimate in latest reset in x</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_y</t>
+    <t xml:space="preserve">VehicleLocalPosition_delta_xy_1</t>
   </si>
   <si>
     <t xml:space="preserve">delta_xy_1</t>
@@ -3076,7 +3076,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -3335,9 +3335,9 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/msg_reference.xlsx
+++ b/msg_reference.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="838">
   <si>
     <t xml:space="preserve">Topic Name</t>
   </si>
@@ -710,417 +710,270 @@
     <t xml:space="preserve">VehicleLocalPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_timestamp_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleLocalPosition_xy_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">xy_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Are x and y valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_z_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">z_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Is z valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_v_xy_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">v_xy_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Is vx and vy valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_v_z_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">v_z_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Is vz valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">North position in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">East position in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">Down position (negative altitude) in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_xy_0</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_xy_0</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of lateral shift of position estimate in latest reset in x</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_xy_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_xy_1</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of lateral shift of position estimate in latest reset in y</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_xy_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">xy_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Index of latest lateral position estimate reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_z</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of vertical shift of position estimate in latest reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_z_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">z_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Index of latest vertical position estimate reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vx</t>
-  </si>
-  <si>
     <t xml:space="preserve">vx</t>
   </si>
   <si>
     <t xml:space="preserve">North velocity in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vy</t>
-  </si>
-  <si>
     <t xml:space="preserve">vy</t>
   </si>
   <si>
     <t xml:space="preserve">East velocity in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vz</t>
-  </si>
-  <si>
     <t xml:space="preserve">vz</t>
   </si>
   <si>
     <t xml:space="preserve">Down velocity in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_z_deriv</t>
-  </si>
-  <si>
     <t xml:space="preserve">z_deriv</t>
   </si>
   <si>
     <t xml:space="preserve">Down position in time derivative of NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_vx</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_vxy_0</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of lateral shift of velocity estimate in latest reset in x</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_vy</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_vxy_1</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of lateral shift of velocity estimate in latest reset in y</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vxy_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">vxy_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Index of latest lateral velocity estimate reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_vz</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_vz</t>
   </si>
   <si>
     <t xml:space="preserve">Amount of vertical shift of velocity estimate in latest reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vz_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">vz_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Index of latest vertical velocity estimate reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ax</t>
-  </si>
-  <si>
     <t xml:space="preserve">ax</t>
   </si>
   <si>
     <t xml:space="preserve">North velocity derivative in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ay</t>
-  </si>
-  <si>
     <t xml:space="preserve">ay</t>
   </si>
   <si>
     <t xml:space="preserve">East velocity derivative in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_az</t>
-  </si>
-  <si>
     <t xml:space="preserve">az</t>
   </si>
   <si>
     <t xml:space="preserve">Down velocity derivative in NED earth-fixed frame</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_heading</t>
-  </si>
-  <si>
     <t xml:space="preserve">Euler yaw angle transforming the tangent plane relative to NED earth-fixed frame. [-PI, PI]</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_heading_var</t>
-  </si>
-  <si>
     <t xml:space="preserve">heading_var</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in heading</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_unaided_heading</t>
-  </si>
-  <si>
     <t xml:space="preserve">unaided_heading</t>
   </si>
   <si>
     <t xml:space="preserve">Same as heading but generated by integrating corrected gyro data only</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_delta_heading</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_heading</t>
   </si>
   <si>
     <t xml:space="preserve">Heading delta caused by latest heading reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_heading_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">heading_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Index of latest heading reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_heading_good_for_control</t>
-  </si>
-  <si>
     <t xml:space="preserve">heading_good_for_control</t>
   </si>
   <si>
     <t xml:space="preserve">Is heading readings good for controller</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_tilt_var</t>
-  </si>
-  <si>
     <t xml:space="preserve">tilt_var</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in tilt</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_xy_global</t>
-  </si>
-  <si>
     <t xml:space="preserve">xy_global</t>
   </si>
   <si>
     <t xml:space="preserve">Does position x, y have a valid global reference</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_z_global</t>
-  </si>
-  <si>
     <t xml:space="preserve">z_global</t>
   </si>
   <si>
     <t xml:space="preserve">Does position z have a valid global reference</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ref_timestamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">Time when reference position was set since system start</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ref_lat</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_lat</t>
   </si>
   <si>
     <t xml:space="preserve">Reference point latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ref_lon</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_lon</t>
   </si>
   <si>
     <t xml:space="preserve">Reference point longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_ref_alt</t>
-  </si>
-  <si>
     <t xml:space="preserve">ref_alt</t>
   </si>
   <si>
     <t xml:space="preserve">Reference altitude AMSL</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_dist_bottom</t>
-  </si>
-  <si>
     <t xml:space="preserve">dist_bottom</t>
   </si>
   <si>
     <t xml:space="preserve">Distance from bottom surface to ground</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_dist_bottom_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">dist_bottom_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Is distance to bottom surface valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_dist_bottom_sensor_bitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">dist_bottom_sensor_bitfield</t>
   </si>
   <si>
     <t xml:space="preserve">Bitfield indicating what type of sensor is used to estimate dist_bottom. [0: None; 1: Range sensor; 2: Flow sensor]</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_eph</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard deviation of horizontal position error</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_epv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard deviation of vertical position error</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_evh</t>
-  </si>
-  <si>
     <t xml:space="preserve">evh</t>
   </si>
   <si>
     <t xml:space="preserve">Standard deviation of horizontal velocity error</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_evv</t>
-  </si>
-  <si>
     <t xml:space="preserve">evv</t>
   </si>
   <si>
     <t xml:space="preserve">Standard deviation of vertical velocity error</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_dead_reckoning</t>
-  </si>
-  <si>
     <t xml:space="preserve">dead_reckoning</t>
   </si>
   <si>
     <t xml:space="preserve">Is position estimated through dead-reckoning</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vxy_max</t>
-  </si>
-  <si>
     <t xml:space="preserve">vxy_max</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum horizontal speed – set to 0 when limiting not required</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_vz_max</t>
-  </si>
-  <si>
     <t xml:space="preserve">vz_max</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum vertical speed – set to 0 when limiting not required</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_hagl_min</t>
-  </si>
-  <si>
     <t xml:space="preserve">hagl_min</t>
   </si>
   <si>
@@ -1130,9 +983,6 @@
     <t xml:space="preserve">Minimum height above ground level – set to 0 when limiting not required</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleLocalPosition_hagl_max</t>
-  </si>
-  <si>
     <t xml:space="preserve">hagl_max</t>
   </si>
   <si>
@@ -1154,7 +1004,7 @@
     <t xml:space="preserve">Position and orientation frame of reference. [0: Unknown; 1: NED earth-fixed frame; 2: FRD world-fixed frame, arbitrary heading reference]</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_x</t>
+    <t xml:space="preserve">VehicleOdometry_position_0</t>
   </si>
   <si>
     <t xml:space="preserve">position_0</t>
@@ -1163,7 +1013,7 @@
     <t xml:space="preserve">Position in x. Frame of reference defined by local_frame.</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_y</t>
+    <t xml:space="preserve">VehicleOdometry_position_1</t>
   </si>
   <si>
     <t xml:space="preserve">position_1</t>
@@ -1172,7 +1022,7 @@
     <t xml:space="preserve">Position in y. Frame of reference defined by local_frame.</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_z</t>
+    <t xml:space="preserve">VehicleOdometry_position_2</t>
   </si>
   <si>
     <t xml:space="preserve">position_2</t>
@@ -1226,237 +1076,147 @@
     <t xml:space="preserve">Reference frame of velocity data. [0: Unknown; 1: NED earth-fixed frame; 2: FRD world-fixed frame, arbitrary heading reference]</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_0</t>
   </si>
   <si>
     <t xml:space="preserve">Velocity in x. Frame of reference defined by velocity_frame variable.</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_1</t>
   </si>
   <si>
     <t xml:space="preserve">Velocity in y. Frame of reference defined by velocity_frame variable.</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_2</t>
   </si>
   <si>
     <t xml:space="preserve">Velocity in z. Frame of reference defined by velocity_frame variable.</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_angular_velocity_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">angular_velocity_0</t>
   </si>
   <si>
     <t xml:space="preserve">Angular velocity in body-fixed frame in roll</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_angular_velocity_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">angular_velocity_1</t>
   </si>
   <si>
     <t xml:space="preserve">Angular velocity in body-fixed frame in pitch</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_angular_velocity_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">angular_velocity_2</t>
   </si>
   <si>
     <t xml:space="preserve">Angular velocity in body-fixed frame in yaw</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_variance_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">position_variance_0</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in position x</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_variance_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">position_variance_1</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in position y</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_position_variance_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">position_variance_2</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in position z</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_orientation_variance_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">orientation_variance_0</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in orientation roll</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_orientation_variance_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">orientation_variance_1</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in orientation pitch</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_orientation_variance_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">orientation_variance_2</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in orientation yaw</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_variance_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_variance_0</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in velocity x</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_variance_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_variance_1</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in velocity y</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_velocity_variance_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">velocity_variance_2</t>
   </si>
   <si>
     <t xml:space="preserve">Variance in velocity z</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Number of times stream was reset</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleOdometry_quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">quality</t>
   </si>
   <si>
     <t xml:space="preserve">VehicleGlobalPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_timestamp_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleGlobalPosition_lat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_lon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_alt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Altitude AMSL</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_alt_ellipsoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleGlobalPosition_delta_alt</t>
-  </si>
-  <si>
     <t xml:space="preserve">delta_alt</t>
   </si>
   <si>
     <t xml:space="preserve">Reset delta for altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_lat_lon_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">lat_lon_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Counter for reset events on horizontal position coordinates</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_alt_reset_counter</t>
-  </si>
-  <si>
     <t xml:space="preserve">alt_reset_counter</t>
   </si>
   <si>
     <t xml:space="preserve">Counter for reset events on altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_eph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleGlobalPosition_epv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleGlobalPosition_terrain_alt</t>
-  </si>
-  <si>
     <t xml:space="preserve">terrain_alt</t>
   </si>
   <si>
     <t xml:space="preserve">Terrain altitude WGS84</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_terrain_alt_valid</t>
-  </si>
-  <si>
     <t xml:space="preserve">terrain_alt_valid</t>
   </si>
   <si>
     <t xml:space="preserve">Terrain altitude estimate is valid</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleGlobalPosition_dead_reckoning</t>
-  </si>
-  <si>
     <t xml:space="preserve">VehicleAttitude</t>
   </si>
   <si>
@@ -1538,27 +1298,18 @@
     <t xml:space="preserve">VehicleAcceleration_timestamp_sample</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAcceleration_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_0</t>
   </si>
   <si>
     <t xml:space="preserve">Bias corrected acceleration (including gravity) in the FRD body frame y-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAcceleration_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_1</t>
   </si>
   <si>
     <t xml:space="preserve">Bias corrected acceleration (including gravity) in the FRD body frame x-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAcceleration_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_2</t>
   </si>
   <si>
@@ -1571,27 +1322,15 @@
     <t xml:space="preserve">VehicleAngularVelocity_timestamp_sample</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bias corrected angular velocity in the FRD body frame y-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bias corrected angular velocity in the FRD body frame x-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_z</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bias corrected angular velocity in the FRD body frame z-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_x_derivative</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_derivative_0</t>
   </si>
   <si>
@@ -1601,18 +1340,12 @@
     <t xml:space="preserve">Angular acceleration about the FRD body frame x-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_y_derivative</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_derivative_1</t>
   </si>
   <si>
     <t xml:space="preserve">Angular acceleration about the FRD body frame y-axis</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleAngularVelocity_z_derivative</t>
-  </si>
-  <si>
     <t xml:space="preserve">xyz_derivative_2</t>
   </si>
   <si>
@@ -2399,10 +2132,10 @@
     <t xml:space="preserve">Time when current nav_state activated</t>
   </si>
   <si>
-    <t xml:space="preserve">VehicleStatus_nav_state_user_interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nav_state_user_interaction</t>
+    <t xml:space="preserve">VehicleStatus_nav_state_user_intention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nav_state_user_intention</t>
   </si>
   <si>
     <t xml:space="preserve">Mode that the user selected</t>
@@ -2642,6 +2375,24 @@
     <t xml:space="preserve">Is open drone ID system healthy</t>
   </si>
   <si>
+    <t xml:space="preserve">VehicleStatus_parachute_system_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parachute_system_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is parachute system present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VehicleStatus_parachute_system_healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parachute_system_healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is avoidance system working</t>
+  </si>
+  <si>
     <t xml:space="preserve">VehicleStatus_avoidance_system_required</t>
   </si>
   <si>
@@ -2655,9 +2406,6 @@
   </si>
   <si>
     <t xml:space="preserve">avoidance_system_valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is avoidance system working</t>
   </si>
   <si>
     <t xml:space="preserve">VehicleStatus_rc_calibration_in_progress</t>
@@ -3072,11 +2820,11 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
@@ -3332,12 +3080,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="I325" activeCellId="0" sqref="I325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5154,8 +4902,9 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="4" t="s">
-        <v>229</v>
+      <c r="D82" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E82)</f>
+        <v>VehicleLocalPosition_timestamp_sample</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>50</v>
@@ -5178,11 +4927,12 @@
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
-      <c r="D83" s="4" t="s">
-        <v>230</v>
+      <c r="D83" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E83)</f>
+        <v>VehicleLocalPosition_xy_valid</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>196</v>
@@ -5192,18 +4942,19 @@
         <v>Categorical</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="4" t="s">
-        <v>233</v>
+      <c r="D84" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E84)</f>
+        <v>VehicleLocalPosition_z_valid</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>196</v>
@@ -5213,18 +4964,19 @@
         <v>Categorical</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
-      <c r="D85" s="4" t="s">
-        <v>236</v>
+      <c r="D85" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E85)</f>
+        <v>VehicleLocalPosition_v_xy_valid</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>196</v>
@@ -5234,18 +4986,19 @@
         <v>Categorical</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="4" t="s">
-        <v>239</v>
+      <c r="D86" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E86)</f>
+        <v>VehicleLocalPosition_v_z_valid</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>196</v>
@@ -5255,15 +5008,16 @@
         <v>Categorical</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
-      <c r="D87" s="4" t="s">
-        <v>242</v>
+      <c r="D87" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E87)</f>
+        <v>VehicleLocalPosition_x</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>57</v>
@@ -5279,15 +5033,16 @@
         <v>Numerical</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="4" t="s">
-        <v>244</v>
+      <c r="D88" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E88)</f>
+        <v>VehicleLocalPosition_y</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>62</v>
@@ -5303,15 +5058,16 @@
         <v>Numerical</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="4" t="s">
-        <v>246</v>
+      <c r="D89" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E89)</f>
+        <v>VehicleLocalPosition_z</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>65</v>
@@ -5327,18 +5083,19 @@
         <v>Numerical</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
-      <c r="D90" s="4" t="s">
-        <v>248</v>
+      <c r="D90" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E90)</f>
+        <v>VehicleLocalPosition_delta_xy_0</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>58</v>
@@ -5351,18 +5108,19 @@
         <v>Numerical</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
-      <c r="D91" s="4" t="s">
-        <v>251</v>
+      <c r="D91" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E91)</f>
+        <v>VehicleLocalPosition_delta_xy_1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>58</v>
@@ -5375,18 +5133,19 @@
         <v>Numerical</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
-      <c r="D92" s="4" t="s">
-        <v>254</v>
+      <c r="D92" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E92)</f>
+        <v>VehicleLocalPosition_xy_reset_counter</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>54</v>
@@ -5396,18 +5155,19 @@
         <v>Categorical</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="4" t="s">
-        <v>257</v>
+      <c r="D93" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E93)</f>
+        <v>VehicleLocalPosition_delta_z</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>58</v>
@@ -5420,18 +5180,19 @@
         <v>Numerical</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="4" t="s">
-        <v>260</v>
+      <c r="D94" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E94)</f>
+        <v>VehicleLocalPosition_z_reset_counter</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>54</v>
@@ -5441,18 +5202,19 @@
         <v>Categorical</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="4" t="s">
-        <v>263</v>
+      <c r="D95" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E95)</f>
+        <v>VehicleLocalPosition_vx</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>58</v>
@@ -5465,18 +5227,19 @@
         <v>Numerical</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="4" t="s">
-        <v>266</v>
+      <c r="D96" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E96)</f>
+        <v>VehicleLocalPosition_vy</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>58</v>
@@ -5489,18 +5252,19 @@
         <v>Numerical</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="4" t="s">
-        <v>269</v>
+      <c r="D97" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E97)</f>
+        <v>VehicleLocalPosition_vz</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>58</v>
@@ -5513,18 +5277,19 @@
         <v>Numerical</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="4" t="s">
-        <v>272</v>
+      <c r="D98" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E98)</f>
+        <v>VehicleLocalPosition_z_deriv</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>58</v>
@@ -5537,18 +5302,19 @@
         <v>Numerical</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="4" t="s">
-        <v>275</v>
+      <c r="D99" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E99)</f>
+        <v>VehicleLocalPosition_delta_vxy_0</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>58</v>
@@ -5561,18 +5327,19 @@
         <v>Numerical</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="4" t="s">
-        <v>278</v>
+      <c r="D100" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E100)</f>
+        <v>VehicleLocalPosition_delta_vxy_1</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>58</v>
@@ -5585,18 +5352,19 @@
         <v>Numerical</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
-      <c r="D101" s="4" t="s">
-        <v>281</v>
+      <c r="D101" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E101)</f>
+        <v>VehicleLocalPosition_vxy_reset_counter</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>54</v>
@@ -5606,18 +5374,19 @@
         <v>Categorical</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
-      <c r="D102" s="4" t="s">
-        <v>284</v>
+      <c r="D102" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E102)</f>
+        <v>VehicleLocalPosition_delta_vz</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>58</v>
@@ -5630,18 +5399,19 @@
         <v>Numerical</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
-      <c r="D103" s="4" t="s">
-        <v>287</v>
+      <c r="D103" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E103)</f>
+        <v>VehicleLocalPosition_vz_reset_counter</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>54</v>
@@ -5651,18 +5421,19 @@
         <v>Categorical</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
-      <c r="D104" s="4" t="s">
-        <v>290</v>
+      <c r="D104" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E104)</f>
+        <v>VehicleLocalPosition_ax</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>58</v>
@@ -5675,18 +5446,19 @@
         <v>Numerical</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
-      <c r="D105" s="4" t="s">
-        <v>293</v>
+      <c r="D105" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E105)</f>
+        <v>VehicleLocalPosition_ay</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>58</v>
@@ -5699,18 +5471,19 @@
         <v>Numerical</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
-      <c r="D106" s="4" t="s">
-        <v>296</v>
+      <c r="D106" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E106)</f>
+        <v>VehicleLocalPosition_az</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>58</v>
@@ -5723,15 +5496,16 @@
         <v>Numerical</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="4" t="s">
-        <v>299</v>
+      <c r="D107" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E107)</f>
+        <v>VehicleLocalPosition_heading</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>208</v>
@@ -5747,18 +5521,19 @@
         <v>Numerical</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="4" t="s">
-        <v>301</v>
+      <c r="D108" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E108)</f>
+        <v>VehicleLocalPosition_heading_var</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>58</v>
@@ -5771,18 +5546,19 @@
         <v>Numerical</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
-      <c r="D109" s="4" t="s">
-        <v>304</v>
+      <c r="D109" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E109)</f>
+        <v>VehicleLocalPosition_unaided_heading</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>58</v>
@@ -5795,18 +5571,19 @@
         <v>Numerical</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
-      <c r="D110" s="4" t="s">
-        <v>307</v>
+      <c r="D110" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E110)</f>
+        <v>VehicleLocalPosition_delta_heading</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>58</v>
@@ -5819,18 +5596,19 @@
         <v>Numerical</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="4" t="s">
-        <v>310</v>
+      <c r="D111" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E111)</f>
+        <v>VehicleLocalPosition_heading_reset_counter</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>54</v>
@@ -5840,18 +5618,19 @@
         <v>Categorical</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="4" t="s">
-        <v>313</v>
+      <c r="D112" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E112)</f>
+        <v>VehicleLocalPosition_heading_good_for_control</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>196</v>
@@ -5861,18 +5640,19 @@
         <v>Categorical</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="4" t="s">
-        <v>316</v>
+      <c r="D113" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E113)</f>
+        <v>VehicleLocalPosition_tilt_var</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>58</v>
@@ -5885,18 +5665,19 @@
         <v>Numerical</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
-      <c r="D114" s="4" t="s">
-        <v>319</v>
+      <c r="D114" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E114)</f>
+        <v>VehicleLocalPosition_xy_global</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>196</v>
@@ -5906,18 +5687,19 @@
         <v>Categorical</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
-      <c r="D115" s="4" t="s">
-        <v>322</v>
+      <c r="D115" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E115)</f>
+        <v>VehicleLocalPosition_z_global</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>196</v>
@@ -5927,18 +5709,19 @@
         <v>Categorical</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
-      <c r="D116" s="4" t="s">
-        <v>325</v>
+      <c r="D116" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E116)</f>
+        <v>VehicleLocalPosition_ref_timestamp</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>46</v>
@@ -5951,18 +5734,19 @@
         <v>Numerical</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="4" t="s">
-        <v>328</v>
+      <c r="D117" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E117)</f>
+        <v>VehicleLocalPosition_ref_lat</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>58</v>
@@ -5975,18 +5759,19 @@
         <v>Numerical</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="4" t="s">
-        <v>331</v>
+      <c r="D118" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E118)</f>
+        <v>VehicleLocalPosition_ref_lon</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>58</v>
@@ -5999,18 +5784,19 @@
         <v>Numerical</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
-      <c r="D119" s="4" t="s">
-        <v>334</v>
+      <c r="D119" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E119)</f>
+        <v>VehicleLocalPosition_ref_alt</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>58</v>
@@ -6023,18 +5809,19 @@
         <v>Numerical</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="4" t="s">
-        <v>337</v>
+      <c r="D120" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E120)</f>
+        <v>VehicleLocalPosition_dist_bottom</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>58</v>
@@ -6047,18 +5834,19 @@
         <v>Numerical</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
-      <c r="D121" s="4" t="s">
-        <v>340</v>
+      <c r="D121" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E121)</f>
+        <v>VehicleLocalPosition_dist_bottom_valid</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>196</v>
@@ -6068,18 +5856,19 @@
         <v>Categorical</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
-      <c r="D122" s="4" t="s">
-        <v>343</v>
+      <c r="D122" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E122)</f>
+        <v>VehicleLocalPosition_dist_bottom_sensor_bitfield</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>54</v>
@@ -6089,15 +5878,16 @@
         <v>Categorical</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
-      <c r="D123" s="4" t="s">
-        <v>346</v>
+      <c r="D123" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E123)</f>
+        <v>VehicleLocalPosition_eph</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>151</v>
@@ -6113,15 +5903,16 @@
         <v>Numerical</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
-      <c r="D124" s="4" t="s">
-        <v>348</v>
+      <c r="D124" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E124)</f>
+        <v>VehicleLocalPosition_epv</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>154</v>
@@ -6137,18 +5928,19 @@
         <v>Numerical</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
-      <c r="D125" s="4" t="s">
-        <v>350</v>
+      <c r="D125" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E125)</f>
+        <v>VehicleLocalPosition_evh</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>58</v>
@@ -6161,18 +5953,19 @@
         <v>Numerical</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="4" t="s">
-        <v>353</v>
+      <c r="D126" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E126)</f>
+        <v>VehicleLocalPosition_evv</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>58</v>
@@ -6185,18 +5978,19 @@
         <v>Numerical</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
-      <c r="D127" s="4" t="s">
-        <v>356</v>
+      <c r="D127" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E127)</f>
+        <v>VehicleLocalPosition_dead_reckoning</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>196</v>
@@ -6206,18 +6000,19 @@
         <v>Categorical</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="4" t="s">
-        <v>359</v>
+      <c r="D128" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E128)</f>
+        <v>VehicleLocalPosition_vxy_max</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>58</v>
@@ -6230,18 +6025,19 @@
         <v>Numerical</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
-      <c r="D129" s="4" t="s">
-        <v>362</v>
+      <c r="D129" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E129)</f>
+        <v>VehicleLocalPosition_vz_max</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>58</v>
@@ -6254,60 +6050,62 @@
         <v>Numerical</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
-      <c r="D130" s="4" t="s">
-        <v>365</v>
+      <c r="D130" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E130)</f>
+        <v>VehicleLocalPosition_hagl_min</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="H130" s="4" t="str">
         <f aca="false">IF(OR(F130="Float", G130&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
-      <c r="D131" s="4" t="s">
-        <v>369</v>
+      <c r="D131" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleLocalPosition","_",E131)</f>
+        <v>VehicleLocalPosition_hagl_max</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="H131" s="4" t="str">
         <f aca="false">IF(OR(F131="Float", G131&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -6348,7 +6146,7 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="4" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>50</v>
@@ -6372,10 +6170,10 @@
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="4" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>54</v>
@@ -6385,7 +6183,7 @@
         <v>Categorical</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,10 +6191,10 @@
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="4" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>58</v>
@@ -6409,7 +6207,7 @@
         <v>Numerical</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,10 +6215,10 @@
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="4" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>58</v>
@@ -6433,7 +6231,7 @@
         <v>Numerical</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,10 +6239,10 @@
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="4" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>58</v>
@@ -6457,7 +6255,7 @@
         <v>Numerical</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,10 +6263,10 @@
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="4" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>58</v>
@@ -6478,7 +6276,7 @@
         <v>Numerical</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,10 +6284,10 @@
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="4" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>58</v>
@@ -6499,7 +6297,7 @@
         <v>Numerical</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,10 +6305,10 @@
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="4" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>58</v>
@@ -6520,7 +6318,7 @@
         <v>Numerical</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,10 +6326,10 @@
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="4" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>58</v>
@@ -6541,7 +6339,7 @@
         <v>Numerical</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,10 +6347,10 @@
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="4" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>54</v>
@@ -6562,18 +6360,19 @@
         <v>Categorical</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="4" t="s">
-        <v>401</v>
+      <c r="D144" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E144)</f>
+        <v>VehicleOdometry_velocity_0</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>58</v>
@@ -6586,18 +6385,19 @@
         <v>Numerical</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="4" t="s">
-        <v>404</v>
+      <c r="D145" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E145)</f>
+        <v>VehicleOdometry_velocity_1</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>58</v>
@@ -6610,18 +6410,19 @@
         <v>Numerical</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
-      <c r="D146" s="4" t="s">
-        <v>407</v>
+      <c r="D146" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E146)</f>
+        <v>VehicleOdometry_velocity_2</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>58</v>
@@ -6634,18 +6435,19 @@
         <v>Numerical</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="4" t="s">
-        <v>410</v>
+      <c r="D147" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E147)</f>
+        <v>VehicleOdometry_angular_velocity_0</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>58</v>
@@ -6658,18 +6460,19 @@
         <v>Numerical</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
-      <c r="D148" s="4" t="s">
-        <v>413</v>
+      <c r="D148" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E148)</f>
+        <v>VehicleOdometry_angular_velocity_1</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>58</v>
@@ -6682,18 +6485,19 @@
         <v>Numerical</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
-      <c r="D149" s="4" t="s">
-        <v>416</v>
+      <c r="D149" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E149)</f>
+        <v>VehicleOdometry_angular_velocity_2</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>58</v>
@@ -6706,18 +6510,19 @@
         <v>Numerical</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
-      <c r="D150" s="4" t="s">
-        <v>419</v>
+      <c r="D150" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E150)</f>
+        <v>VehicleOdometry_position_variance_0</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>58</v>
@@ -6730,18 +6535,19 @@
         <v>Numerical</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="4" t="s">
-        <v>422</v>
+      <c r="D151" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E151)</f>
+        <v>VehicleOdometry_position_variance_1</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>58</v>
@@ -6754,18 +6560,19 @@
         <v>Numerical</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
-      <c r="D152" s="4" t="s">
-        <v>425</v>
+      <c r="D152" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E152)</f>
+        <v>VehicleOdometry_position_variance_2</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>58</v>
@@ -6778,18 +6585,19 @@
         <v>Numerical</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
-      <c r="D153" s="4" t="s">
-        <v>428</v>
+      <c r="D153" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E153)</f>
+        <v>VehicleOdometry_orientation_variance_0</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>58</v>
@@ -6802,18 +6610,19 @@
         <v>Numerical</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="4" t="s">
-        <v>431</v>
+      <c r="D154" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E154)</f>
+        <v>VehicleOdometry_orientation_variance_1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>58</v>
@@ -6826,18 +6635,19 @@
         <v>Numerical</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="4" t="s">
-        <v>434</v>
+      <c r="D155" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E155)</f>
+        <v>VehicleOdometry_orientation_variance_2</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>58</v>
@@ -6850,18 +6660,19 @@
         <v>Numerical</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="4" t="s">
-        <v>437</v>
+      <c r="D156" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E156)</f>
+        <v>VehicleOdometry_velocity_variance_0</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>58</v>
@@ -6874,18 +6685,19 @@
         <v>Numerical</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
-      <c r="D157" s="4" t="s">
-        <v>440</v>
+      <c r="D157" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E157)</f>
+        <v>VehicleOdometry_velocity_variance_1</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>58</v>
@@ -6898,18 +6710,19 @@
         <v>Numerical</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
-      <c r="D158" s="4" t="s">
-        <v>443</v>
+      <c r="D158" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E158)</f>
+        <v>VehicleOdometry_velocity_variance_2</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>58</v>
@@ -6922,18 +6735,19 @@
         <v>Numerical</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
-      <c r="D159" s="4" t="s">
-        <v>446</v>
+      <c r="D159" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E159)</f>
+        <v>VehicleOdometry_reset_counter</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>54</v>
@@ -6943,18 +6757,19 @@
         <v>Categorical</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
-      <c r="D160" s="4" t="s">
-        <v>449</v>
+      <c r="D160" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleOdometry","_",E160)</f>
+        <v>VehicleOdometry_quality</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>54</v>
@@ -6966,7 +6781,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -7006,8 +6821,9 @@
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
-      <c r="D163" s="4" t="s">
-        <v>452</v>
+      <c r="D163" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E163)</f>
+        <v>VehicleGlobalPosition_timestamp_sample</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>50</v>
@@ -7030,8 +6846,9 @@
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
-      <c r="D164" s="4" t="s">
-        <v>453</v>
+      <c r="D164" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E164)</f>
+        <v>VehicleGlobalPosition_lat</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>127</v>
@@ -7047,15 +6864,16 @@
         <v>Numerical</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
-      <c r="D165" s="4" t="s">
-        <v>455</v>
+      <c r="D165" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E165)</f>
+        <v>VehicleGlobalPosition_lon</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>131</v>
@@ -7071,15 +6889,16 @@
         <v>Numerical</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
-      <c r="D166" s="4" t="s">
-        <v>457</v>
+      <c r="D166" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E166)</f>
+        <v>VehicleGlobalPosition_alt</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>134</v>
@@ -7095,15 +6914,16 @@
         <v>Numerical</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>458</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
-      <c r="D167" s="4" t="s">
-        <v>459</v>
+      <c r="D167" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E167)</f>
+        <v>VehicleGlobalPosition_alt_ellipsoid</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>138</v>
@@ -7126,11 +6946,12 @@
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="4" t="s">
-        <v>460</v>
+      <c r="D168" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E168)</f>
+        <v>VehicleGlobalPosition_delta_alt</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>58</v>
@@ -7143,18 +6964,19 @@
         <v>Numerical</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
-      <c r="D169" s="4" t="s">
-        <v>463</v>
+      <c r="D169" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E169)</f>
+        <v>VehicleGlobalPosition_lat_lon_reset_counter</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>54</v>
@@ -7164,18 +6986,19 @@
         <v>Categorical</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
-      <c r="D170" s="4" t="s">
-        <v>466</v>
+      <c r="D170" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E170)</f>
+        <v>VehicleGlobalPosition_alt_reset_counter</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>54</v>
@@ -7185,15 +7008,16 @@
         <v>Categorical</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="4" t="s">
-        <v>469</v>
+      <c r="D171" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E171)</f>
+        <v>VehicleGlobalPosition_eph</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>151</v>
@@ -7209,15 +7033,16 @@
         <v>Numerical</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
-      <c r="D172" s="4" t="s">
-        <v>470</v>
+      <c r="D172" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E172)</f>
+        <v>VehicleGlobalPosition_epv</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>154</v>
@@ -7233,18 +7058,19 @@
         <v>Numerical</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
-      <c r="D173" s="4" t="s">
-        <v>471</v>
+      <c r="D173" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E173)</f>
+        <v>VehicleGlobalPosition_terrain_alt</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>472</v>
+        <v>394</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>58</v>
@@ -7257,18 +7083,19 @@
         <v>Numerical</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>473</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
-      <c r="D174" s="4" t="s">
-        <v>474</v>
+      <c r="D174" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E174)</f>
+        <v>VehicleGlobalPosition_terrain_alt_valid</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>196</v>
@@ -7278,18 +7105,19 @@
         <v>Categorical</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>476</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
-      <c r="D175" s="4" t="s">
-        <v>477</v>
+      <c r="D175" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleGlobalPosition","_",E175)</f>
+        <v>VehicleGlobalPosition_dead_reckoning</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>196</v>
@@ -7299,12 +7127,12 @@
         <v>Categorical</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -7345,7 +7173,7 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="4" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>50</v>
@@ -7369,10 +7197,10 @@
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="4" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>58</v>
@@ -7382,7 +7210,7 @@
         <v>Numerical</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,10 +7218,10 @@
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="4" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>58</v>
@@ -7403,7 +7231,7 @@
         <v>Numerical</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,10 +7239,10 @@
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="4" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>58</v>
@@ -7424,7 +7252,7 @@
         <v>Numerical</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>485</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,10 +7260,10 @@
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
       <c r="D182" s="4" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>58</v>
@@ -7445,7 +7273,7 @@
         <v>Numerical</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,10 +7281,10 @@
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="4" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>58</v>
@@ -7466,7 +7294,7 @@
         <v>Numerical</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,10 +7302,10 @@
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="4" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>58</v>
@@ -7487,7 +7315,7 @@
         <v>Numerical</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,10 +7323,10 @@
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="4" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>58</v>
@@ -7508,7 +7336,7 @@
         <v>Numerical</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7516,10 +7344,10 @@
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="4" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>58</v>
@@ -7529,7 +7357,7 @@
         <v>Numerical</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,10 +7365,10 @@
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="4" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>54</v>
@@ -7550,12 +7378,12 @@
         <v>Categorical</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -7596,7 +7424,7 @@
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="4" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>50</v>
@@ -7619,11 +7447,12 @@
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
-      <c r="D191" s="4" t="s">
-        <v>505</v>
+      <c r="D191" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAcceleration","_",E191)</f>
+        <v>VehicleAcceleration_xyz_0</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>58</v>
@@ -7636,18 +7465,19 @@
         <v>Numerical</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>507</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
-      <c r="D192" s="4" t="s">
-        <v>508</v>
+      <c r="D192" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAcceleration","_",E192)</f>
+        <v>VehicleAcceleration_xyz_1</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>58</v>
@@ -7660,18 +7490,19 @@
         <v>Numerical</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>510</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
-      <c r="D193" s="4" t="s">
-        <v>511</v>
+      <c r="D193" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAcceleration","_",E193)</f>
+        <v>VehicleAcceleration_xyz_2</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>58</v>
@@ -7684,12 +7515,12 @@
         <v>Numerical</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -7730,7 +7561,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="4" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>50</v>
@@ -7753,11 +7584,12 @@
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
-      <c r="D197" s="4" t="s">
-        <v>516</v>
+      <c r="D197" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E197)</f>
+        <v>VehicleAngularVelocity_xyz_0</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>58</v>
@@ -7770,18 +7602,19 @@
         <v>Numerical</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
-      <c r="D198" s="4" t="s">
-        <v>518</v>
+      <c r="D198" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E198)</f>
+        <v>VehicleAngularVelocity_xyz_1</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>58</v>
@@ -7794,18 +7627,19 @@
         <v>Numerical</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>519</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
-      <c r="D199" s="4" t="s">
-        <v>520</v>
+      <c r="D199" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E199)</f>
+        <v>VehicleAngularVelocity_xyz_2</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>58</v>
@@ -7818,84 +7652,87 @@
         <v>Numerical</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>521</v>
+        <v>435</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
-      <c r="D200" s="4" t="s">
-        <v>522</v>
+      <c r="D200" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E200)</f>
+        <v>VehicleAngularVelocity_xyz_derivative_0</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="H200" s="4" t="str">
         <f aca="false">IF(OR(F200="Float", G200&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
-      <c r="D201" s="4" t="s">
-        <v>526</v>
+      <c r="D201" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E201)</f>
+        <v>VehicleAngularVelocity_xyz_derivative_1</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="H201" s="4" t="str">
         <f aca="false">IF(OR(F201="Float", G201&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>528</v>
+        <v>440</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
-      <c r="D202" s="4" t="s">
-        <v>529</v>
+      <c r="D202" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT("VehicleAngularVelocity","_",E202)</f>
+        <v>VehicleAngularVelocity_xyz_derivative_2</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="H202" s="4" t="str">
         <f aca="false">IF(OR(F202="Float", G202&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7936,10 +7773,10 @@
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="4" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>54</v>
@@ -7949,7 +7786,7 @@
         <v>Categorical</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,23 +7794,23 @@
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
       <c r="D206" s="4" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H206" s="4" t="str">
         <f aca="false">IF(OR(F206="Float", G206&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>539</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,23 +7818,23 @@
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="4" t="s">
-        <v>540</v>
+        <v>451</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>541</v>
+        <v>452</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H207" s="4" t="str">
         <f aca="false">IF(OR(F207="Float", G207&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>542</v>
+        <v>453</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,23 +7842,23 @@
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="4" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>544</v>
+        <v>455</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H208" s="4" t="str">
         <f aca="false">IF(OR(F208="Float", G208&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>545</v>
+        <v>456</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,23 +7866,23 @@
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
       <c r="D209" s="4" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H209" s="4" t="str">
         <f aca="false">IF(OR(F209="Float", G209&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>548</v>
+        <v>459</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,23 +7890,23 @@
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
       <c r="D210" s="4" t="s">
-        <v>549</v>
+        <v>460</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>550</v>
+        <v>461</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H210" s="4" t="str">
         <f aca="false">IF(OR(F210="Float", G210&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>551</v>
+        <v>462</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,23 +7914,23 @@
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="4" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H211" s="4" t="str">
         <f aca="false">IF(OR(F211="Float", G211&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,23 +7938,23 @@
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
       <c r="D212" s="4" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H212" s="4" t="str">
         <f aca="false">IF(OR(F212="Float", G212&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,23 +7962,23 @@
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="4" t="s">
-        <v>558</v>
+        <v>469</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>559</v>
+        <v>470</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H213" s="4" t="str">
         <f aca="false">IF(OR(F213="Float", G213&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,23 +7986,23 @@
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="4" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H214" s="4" t="str">
         <f aca="false">IF(OR(F214="Float", G214&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>563</v>
+        <v>474</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,23 +8010,23 @@
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="4" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H215" s="4" t="str">
         <f aca="false">IF(OR(F215="Float", G215&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,23 +8034,23 @@
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="4" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H216" s="4" t="str">
         <f aca="false">IF(OR(F216="Float", G216&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,23 +8058,23 @@
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
       <c r="D217" s="4" t="s">
-        <v>570</v>
+        <v>481</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>571</v>
+        <v>482</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H217" s="4" t="str">
         <f aca="false">IF(OR(F217="Float", G217&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>572</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,23 +8082,23 @@
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="4" t="s">
-        <v>573</v>
+        <v>484</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>574</v>
+        <v>485</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H218" s="4" t="str">
         <f aca="false">IF(OR(F218="Float", G218&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>575</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,23 +8106,23 @@
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="4" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H219" s="4" t="str">
         <f aca="false">IF(OR(F219="Float", G219&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>578</v>
+        <v>489</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,23 +8130,23 @@
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
       <c r="D220" s="4" t="s">
-        <v>579</v>
+        <v>490</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>580</v>
+        <v>491</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H220" s="4" t="str">
         <f aca="false">IF(OR(F220="Float", G220&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>581</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8317,28 +8154,28 @@
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
       <c r="D221" s="4" t="s">
-        <v>582</v>
+        <v>493</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="H221" s="4" t="str">
         <f aca="false">IF(OR(F221="Float", G221&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>584</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="s">
-        <v>585</v>
+        <v>496</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -8379,10 +8216,10 @@
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="4" t="s">
-        <v>586</v>
+        <v>497</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>587</v>
+        <v>498</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>196</v>
@@ -8392,7 +8229,7 @@
         <v>Categorical</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>588</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,23 +8237,23 @@
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
       <c r="D225" s="4" t="s">
-        <v>589</v>
+        <v>500</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>590</v>
+        <v>501</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H225" s="4" t="str">
         <f aca="false">IF(OR(F225="Float", G225&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>592</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,23 +8261,23 @@
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
       <c r="D226" s="4" t="s">
-        <v>593</v>
+        <v>504</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>594</v>
+        <v>505</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H226" s="4" t="str">
         <f aca="false">IF(OR(F226="Float", G226&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>595</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8448,23 +8285,23 @@
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
       <c r="D227" s="4" t="s">
-        <v>596</v>
+        <v>507</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="H227" s="4" t="str">
         <f aca="false">IF(OR(F227="Float", G227&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>599</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8472,23 +8309,23 @@
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
       <c r="D228" s="4" t="s">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="H228" s="4" t="str">
         <f aca="false">IF(OR(F228="Float", G228&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,23 +8333,23 @@
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
       <c r="D229" s="4" t="s">
-        <v>603</v>
+        <v>514</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="H229" s="4" t="str">
         <f aca="false">IF(OR(F229="Float", G229&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>605</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8520,23 +8357,23 @@
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
       <c r="D230" s="4" t="s">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="H230" s="4" t="str">
         <f aca="false">IF(OR(F230="Float", G230&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>609</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,10 +8381,10 @@
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
       <c r="D231" s="4" t="s">
-        <v>610</v>
+        <v>521</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>611</v>
+        <v>522</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>58</v>
@@ -8557,7 +8394,7 @@
         <v>Numerical</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>612</v>
+        <v>523</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,10 +8402,10 @@
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
       <c r="D232" s="4" t="s">
-        <v>613</v>
+        <v>524</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>614</v>
+        <v>525</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>58</v>
@@ -8578,7 +8415,7 @@
         <v>Numerical</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>615</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8586,23 +8423,23 @@
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
       <c r="D233" s="4" t="s">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="H233" s="4" t="str">
         <f aca="false">IF(OR(F233="Float", G233&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,7 +8447,7 @@
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
       <c r="D234" s="4" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>68</v>
@@ -8626,7 +8463,7 @@
         <v>Numerical</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,10 +8471,10 @@
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
       <c r="D235" s="4" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>54</v>
@@ -8647,7 +8484,7 @@
         <v>Categorical</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,10 +8492,10 @@
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="4" t="s">
-        <v>625</v>
+        <v>536</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>626</v>
+        <v>537</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>54</v>
@@ -8668,7 +8505,7 @@
         <v>Categorical</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>627</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,10 +8513,10 @@
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
       <c r="D237" s="4" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>54</v>
@@ -8689,7 +8526,7 @@
         <v>Categorical</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>630</v>
+        <v>541</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8697,10 +8534,10 @@
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
       <c r="D238" s="4" t="s">
-        <v>631</v>
+        <v>542</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>632</v>
+        <v>543</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>54</v>
@@ -8710,7 +8547,7 @@
         <v>Categorical</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>633</v>
+        <v>544</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,10 +8555,10 @@
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
       <c r="D239" s="4" t="s">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>54</v>
@@ -8731,7 +8568,7 @@
         <v>Categorical</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>636</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,23 +8576,23 @@
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
       <c r="D240" s="4" t="s">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="H240" s="4" t="str">
         <f aca="false">IF(OR(F240="Float", G240&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>640</v>
+        <v>551</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,10 +8600,10 @@
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
       <c r="D241" s="4" t="s">
-        <v>641</v>
+        <v>552</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>54</v>
@@ -8776,7 +8613,7 @@
         <v>Categorical</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>643</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8784,10 +8621,10 @@
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
       <c r="D242" s="4" t="s">
-        <v>644</v>
+        <v>555</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>645</v>
+        <v>556</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>54</v>
@@ -8797,7 +8634,7 @@
         <v>Categorical</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>646</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,23 +8642,23 @@
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
       <c r="D243" s="4" t="s">
-        <v>647</v>
+        <v>558</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>648</v>
+        <v>559</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
       <c r="H243" s="4" t="str">
         <f aca="false">IF(OR(F243="Float", G243&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>650</v>
+        <v>561</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,23 +8666,23 @@
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
       <c r="D244" s="4" t="s">
-        <v>651</v>
+        <v>562</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>652</v>
+        <v>563</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
       <c r="H244" s="4" t="str">
         <f aca="false">IF(OR(F244="Float", G244&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>653</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8853,10 +8690,10 @@
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
       <c r="D245" s="4" t="s">
-        <v>654</v>
+        <v>565</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>655</v>
+        <v>566</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>54</v>
@@ -8866,7 +8703,7 @@
         <v>Categorical</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>656</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,10 +8711,10 @@
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
       <c r="D246" s="4" t="s">
-        <v>657</v>
+        <v>568</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>658</v>
+        <v>569</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>54</v>
@@ -8887,7 +8724,7 @@
         <v>Categorical</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>659</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,23 +8732,23 @@
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
       <c r="D247" s="4" t="s">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H247" s="4" t="str">
         <f aca="false">IF(OR(F247="Float", G247&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>662</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,23 +8756,23 @@
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
       <c r="D248" s="4" t="s">
-        <v>663</v>
+        <v>574</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H248" s="4" t="str">
         <f aca="false">IF(OR(F248="Float", G248&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>665</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,23 +8780,23 @@
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
       <c r="D249" s="4" t="s">
-        <v>666</v>
+        <v>577</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H249" s="4" t="str">
         <f aca="false">IF(OR(F249="Float", G249&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>668</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,23 +8804,23 @@
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
       <c r="D250" s="4" t="s">
-        <v>669</v>
+        <v>580</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>670</v>
+        <v>581</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H250" s="4" t="str">
         <f aca="false">IF(OR(F250="Float", G250&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>671</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,23 +8828,23 @@
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
       <c r="D251" s="4" t="s">
-        <v>672</v>
+        <v>583</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>673</v>
+        <v>584</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H251" s="4" t="str">
         <f aca="false">IF(OR(F251="Float", G251&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>674</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,23 +8852,23 @@
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
       <c r="D252" s="4" t="s">
-        <v>675</v>
+        <v>586</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>676</v>
+        <v>587</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H252" s="4" t="str">
         <f aca="false">IF(OR(F252="Float", G252&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,23 +8876,23 @@
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
       <c r="D253" s="4" t="s">
-        <v>678</v>
+        <v>589</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>679</v>
+        <v>590</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H253" s="4" t="str">
         <f aca="false">IF(OR(F253="Float", G253&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9063,23 +8900,23 @@
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
       <c r="D254" s="4" t="s">
-        <v>681</v>
+        <v>592</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>682</v>
+        <v>593</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H254" s="4" t="str">
         <f aca="false">IF(OR(F254="Float", G254&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>683</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9087,23 +8924,23 @@
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
       <c r="D255" s="4" t="s">
-        <v>684</v>
+        <v>595</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H255" s="4" t="str">
         <f aca="false">IF(OR(F255="Float", G255&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>686</v>
+        <v>597</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9111,23 +8948,23 @@
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
       <c r="D256" s="4" t="s">
-        <v>687</v>
+        <v>598</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H256" s="4" t="str">
         <f aca="false">IF(OR(F256="Float", G256&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9135,23 +8972,23 @@
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
       <c r="D257" s="4" t="s">
-        <v>690</v>
+        <v>601</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H257" s="4" t="str">
         <f aca="false">IF(OR(F257="Float", G257&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9159,23 +8996,23 @@
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
       <c r="D258" s="4" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H258" s="4" t="str">
         <f aca="false">IF(OR(F258="Float", G258&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,23 +9020,23 @@
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
       <c r="D259" s="4" t="s">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H259" s="4" t="str">
         <f aca="false">IF(OR(F259="Float", G259&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>698</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9207,23 +9044,23 @@
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
       <c r="D260" s="4" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H260" s="4" t="str">
         <f aca="false">IF(OR(F260="Float", G260&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,23 +9068,23 @@
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
       <c r="D261" s="4" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H261" s="4" t="str">
         <f aca="false">IF(OR(F261="Float", G261&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,10 +9092,10 @@
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
       <c r="D262" s="4" t="s">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>196</v>
@@ -9268,7 +9105,7 @@
         <v>Categorical</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>707</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9276,10 +9113,10 @@
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
       <c r="D263" s="4" t="s">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>196</v>
@@ -9289,7 +9126,7 @@
         <v>Categorical</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>710</v>
+        <v>621</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,10 +9134,10 @@
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
       <c r="D264" s="4" t="s">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>712</v>
+        <v>623</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>54</v>
@@ -9310,7 +9147,7 @@
         <v>Categorical</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>713</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,10 +9155,10 @@
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
       <c r="D265" s="4" t="s">
-        <v>714</v>
+        <v>625</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>715</v>
+        <v>626</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>54</v>
@@ -9331,7 +9168,7 @@
         <v>Categorical</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9339,10 +9176,10 @@
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
       <c r="D266" s="4" t="s">
-        <v>717</v>
+        <v>628</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>718</v>
+        <v>629</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>54</v>
@@ -9352,7 +9189,7 @@
         <v>Categorical</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>719</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,10 +9197,10 @@
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
       <c r="D267" s="4" t="s">
-        <v>720</v>
+        <v>631</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>721</v>
+        <v>632</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>54</v>
@@ -9373,7 +9210,7 @@
         <v>Categorical</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>722</v>
+        <v>633</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9381,23 +9218,23 @@
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
       <c r="D268" s="4" t="s">
-        <v>723</v>
+        <v>634</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>725</v>
+        <v>636</v>
       </c>
       <c r="H268" s="4" t="str">
         <f aca="false">IF(OR(F268="Float", G268&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>726</v>
+        <v>637</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,23 +9242,23 @@
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
       <c r="D269" s="4" t="s">
-        <v>727</v>
+        <v>638</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>728</v>
+        <v>639</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="H269" s="4" t="str">
         <f aca="false">IF(OR(F269="Float", G269&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>730</v>
+        <v>641</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,23 +9266,23 @@
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
       <c r="D270" s="4" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>732</v>
+        <v>643</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="H270" s="4" t="str">
         <f aca="false">IF(OR(F270="Float", G270&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>733</v>
+        <v>644</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,23 +9290,23 @@
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
       <c r="D271" s="4" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="H271" s="4" t="str">
         <f aca="false">IF(OR(F271="Float", G271&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>736</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9477,23 +9314,23 @@
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
       <c r="D272" s="4" t="s">
-        <v>737</v>
+        <v>648</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>738</v>
+        <v>649</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="H272" s="4" t="str">
         <f aca="false">IF(OR(F272="Float", G272&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>739</v>
+        <v>650</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,23 +9338,23 @@
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
       <c r="D273" s="4" t="s">
-        <v>740</v>
+        <v>651</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>741</v>
+        <v>652</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="H273" s="4" t="str">
         <f aca="false">IF(OR(F273="Float", G273&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>742</v>
+        <v>653</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9525,10 +9362,10 @@
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
       <c r="D274" s="4" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>744</v>
+        <v>655</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>54</v>
@@ -9538,7 +9375,7 @@
         <v>Categorical</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>745</v>
+        <v>656</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9546,28 +9383,28 @@
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
       <c r="D275" s="4" t="s">
-        <v>746</v>
+        <v>657</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>747</v>
+        <v>658</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H275" s="4" t="str">
         <f aca="false">IF(OR(F275="Float", G275&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="9" t="s">
-        <v>749</v>
+        <v>660</v>
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9608,23 +9445,23 @@
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
       <c r="D278" s="4" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>590</v>
+        <v>501</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="H278" s="4" t="str">
         <f aca="false">IF(OR(F278="Float", G278&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,23 +9469,23 @@
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
       <c r="D279" s="4" t="s">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="H279" s="4" t="str">
         <f aca="false">IF(OR(F279="Float", G279&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9656,23 +9493,23 @@
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
       <c r="D280" s="4" t="s">
-        <v>754</v>
+        <v>665</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>755</v>
+        <v>666</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="H280" s="4" t="str">
         <f aca="false">IF(OR(F280="Float", G280&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>757</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9680,10 +9517,10 @@
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
       <c r="D281" s="4" t="s">
-        <v>758</v>
+        <v>669</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>759</v>
+        <v>670</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>54</v>
@@ -9698,10 +9535,10 @@
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
       <c r="D282" s="4" t="s">
-        <v>760</v>
+        <v>671</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>761</v>
+        <v>672</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>54</v>
@@ -9716,10 +9553,10 @@
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
       <c r="D283" s="4" t="s">
-        <v>762</v>
+        <v>673</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>54</v>
@@ -9734,10 +9571,10 @@
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
       <c r="D284" s="4" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>765</v>
+        <v>676</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>54</v>
@@ -9752,10 +9589,10 @@
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
       <c r="D285" s="4" t="s">
-        <v>766</v>
+        <v>677</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>54</v>
@@ -9770,10 +9607,10 @@
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="4" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>54</v>
@@ -9788,10 +9625,10 @@
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
       <c r="D287" s="4" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>54</v>
@@ -9806,10 +9643,10 @@
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
       <c r="D288" s="4" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>773</v>
+        <v>684</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>54</v>
@@ -9821,7 +9658,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="9" t="s">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9862,10 +9699,10 @@
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
       <c r="D291" s="4" t="s">
-        <v>775</v>
+        <v>686</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>46</v>
@@ -9878,7 +9715,7 @@
         <v>Numerical</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9886,10 +9723,10 @@
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
       <c r="D292" s="4" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>46</v>
@@ -9902,7 +9739,7 @@
         <v>Numerical</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,10 +9747,10 @@
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
       <c r="D293" s="4" t="s">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>54</v>
@@ -9923,7 +9760,7 @@
         <v>Categorical</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>783</v>
+        <v>694</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,10 +9768,10 @@
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
       <c r="D294" s="4" t="s">
-        <v>784</v>
+        <v>695</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>785</v>
+        <v>696</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>54</v>
@@ -9944,7 +9781,7 @@
         <v>Categorical</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9952,10 +9789,10 @@
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
       <c r="D295" s="4" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>788</v>
+        <v>699</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>54</v>
@@ -9965,7 +9802,7 @@
         <v>Categorical</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,10 +9810,10 @@
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="4" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>46</v>
@@ -9989,7 +9826,7 @@
         <v>Numerical</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>791</v>
+        <v>702</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,10 +9834,10 @@
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="4" t="s">
-        <v>792</v>
+        <v>703</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>54</v>
@@ -10010,7 +9847,7 @@
         <v>Categorical</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>794</v>
+        <v>705</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10018,10 +9855,10 @@
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
       <c r="D298" s="4" t="s">
-        <v>795</v>
+        <v>706</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>796</v>
+        <v>707</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>54</v>
@@ -10031,7 +9868,7 @@
         <v>Categorical</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>797</v>
+        <v>708</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,10 +9876,10 @@
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
       <c r="D299" s="4" t="s">
-        <v>798</v>
+        <v>709</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>799</v>
+        <v>710</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>54</v>
@@ -10052,7 +9889,7 @@
         <v>Categorical</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>800</v>
+        <v>711</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10060,10 +9897,10 @@
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
       <c r="D300" s="4" t="s">
-        <v>801</v>
+        <v>712</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>802</v>
+        <v>713</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>54</v>
@@ -10073,7 +9910,7 @@
         <v>Categorical</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>803</v>
+        <v>714</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,10 +9918,10 @@
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
       <c r="D301" s="4" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>805</v>
+        <v>716</v>
       </c>
       <c r="F301" s="4" t="s">
         <v>54</v>
@@ -10094,7 +9931,7 @@
         <v>Categorical</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>806</v>
+        <v>717</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10102,10 +9939,10 @@
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="4" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>808</v>
+        <v>719</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>54</v>
@@ -10115,7 +9952,7 @@
         <v>Categorical</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>809</v>
+        <v>720</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,10 +9960,10 @@
       <c r="B303" s="10"/>
       <c r="C303" s="10"/>
       <c r="D303" s="4" t="s">
-        <v>810</v>
+        <v>721</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>811</v>
+        <v>722</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>54</v>
@@ -10136,7 +9973,7 @@
         <v>Categorical</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>812</v>
+        <v>723</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,10 +9981,10 @@
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
       <c r="D304" s="4" t="s">
-        <v>813</v>
+        <v>724</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>814</v>
+        <v>725</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>54</v>
@@ -10157,7 +9994,7 @@
         <v>Categorical</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>815</v>
+        <v>726</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10165,10 +10002,10 @@
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
       <c r="D305" s="4" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>196</v>
@@ -10178,7 +10015,7 @@
         <v>Categorical</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>818</v>
+        <v>729</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,10 +10023,10 @@
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
       <c r="D306" s="4" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>196</v>
@@ -10199,7 +10036,7 @@
         <v>Categorical</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10207,10 +10044,10 @@
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
       <c r="D307" s="4" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>823</v>
+        <v>734</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>54</v>
@@ -10220,7 +10057,7 @@
         <v>Categorical</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>824</v>
+        <v>735</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10228,10 +10065,10 @@
       <c r="B308" s="10"/>
       <c r="C308" s="10"/>
       <c r="D308" s="4" t="s">
-        <v>825</v>
+        <v>736</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>196</v>
@@ -10241,7 +10078,7 @@
         <v>Categorical</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>827</v>
+        <v>738</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,10 +10086,10 @@
       <c r="B309" s="10"/>
       <c r="C309" s="10"/>
       <c r="D309" s="4" t="s">
-        <v>828</v>
+        <v>739</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>829</v>
+        <v>740</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>54</v>
@@ -10262,7 +10099,7 @@
         <v>Categorical</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>830</v>
+        <v>741</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10270,10 +10107,10 @@
       <c r="B310" s="10"/>
       <c r="C310" s="10"/>
       <c r="D310" s="4" t="s">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>832</v>
+        <v>743</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>196</v>
@@ -10283,7 +10120,7 @@
         <v>Categorical</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>833</v>
+        <v>744</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,10 +10128,10 @@
       <c r="B311" s="10"/>
       <c r="C311" s="10"/>
       <c r="D311" s="4" t="s">
-        <v>834</v>
+        <v>745</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>835</v>
+        <v>746</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>196</v>
@@ -10304,7 +10141,7 @@
         <v>Categorical</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>836</v>
+        <v>747</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,10 +10149,10 @@
       <c r="B312" s="10"/>
       <c r="C312" s="10"/>
       <c r="D312" s="4" t="s">
-        <v>837</v>
+        <v>748</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>838</v>
+        <v>749</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>196</v>
@@ -10325,7 +10162,7 @@
         <v>Categorical</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>839</v>
+        <v>750</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,10 +10170,10 @@
       <c r="B313" s="10"/>
       <c r="C313" s="10"/>
       <c r="D313" s="4" t="s">
-        <v>840</v>
+        <v>751</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>841</v>
+        <v>752</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>196</v>
@@ -10346,7 +10183,7 @@
         <v>Categorical</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>842</v>
+        <v>753</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,10 +10191,10 @@
       <c r="B314" s="10"/>
       <c r="C314" s="10"/>
       <c r="D314" s="4" t="s">
-        <v>843</v>
+        <v>754</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>196</v>
@@ -10367,7 +10204,7 @@
         <v>Categorical</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>845</v>
+        <v>756</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10375,10 +10212,10 @@
       <c r="B315" s="10"/>
       <c r="C315" s="10"/>
       <c r="D315" s="4" t="s">
-        <v>846</v>
+        <v>757</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>847</v>
+        <v>758</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>54</v>
@@ -10388,7 +10225,7 @@
         <v>Categorical</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>848</v>
+        <v>759</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10396,10 +10233,10 @@
       <c r="B316" s="10"/>
       <c r="C316" s="10"/>
       <c r="D316" s="4" t="s">
-        <v>849</v>
+        <v>760</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>54</v>
@@ -10409,7 +10246,7 @@
         <v>Categorical</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>851</v>
+        <v>762</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,10 +10254,10 @@
       <c r="B317" s="10"/>
       <c r="C317" s="10"/>
       <c r="D317" s="4" t="s">
-        <v>852</v>
+        <v>763</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>853</v>
+        <v>764</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>54</v>
@@ -10430,7 +10267,7 @@
         <v>Categorical</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>854</v>
+        <v>765</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,10 +10275,10 @@
       <c r="B318" s="10"/>
       <c r="C318" s="10"/>
       <c r="D318" s="4" t="s">
-        <v>855</v>
+        <v>766</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>856</v>
+        <v>767</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>196</v>
@@ -10451,7 +10288,7 @@
         <v>Categorical</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>857</v>
+        <v>768</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,10 +10296,10 @@
       <c r="B319" s="10"/>
       <c r="C319" s="10"/>
       <c r="D319" s="4" t="s">
-        <v>858</v>
+        <v>769</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>859</v>
+        <v>770</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>196</v>
@@ -10472,7 +10309,7 @@
         <v>Categorical</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>860</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10480,10 +10317,10 @@
       <c r="B320" s="10"/>
       <c r="C320" s="10"/>
       <c r="D320" s="4" t="s">
-        <v>861</v>
+        <v>772</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>862</v>
+        <v>773</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>196</v>
@@ -10493,7 +10330,7 @@
         <v>Categorical</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>863</v>
+        <v>774</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,10 +10338,10 @@
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
       <c r="D321" s="4" t="s">
-        <v>864</v>
+        <v>775</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>865</v>
+        <v>776</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>196</v>
@@ -10514,7 +10351,7 @@
         <v>Categorical</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>866</v>
+        <v>777</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,10 +10359,10 @@
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
       <c r="D322" s="4" t="s">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>868</v>
+        <v>779</v>
       </c>
       <c r="F322" s="4" t="s">
         <v>196</v>
@@ -10535,7 +10372,7 @@
         <v>Categorical</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>869</v>
+        <v>780</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10543,10 +10380,10 @@
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
       <c r="D323" s="4" t="s">
-        <v>870</v>
+        <v>781</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>871</v>
+        <v>782</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>196</v>
@@ -10556,7 +10393,7 @@
         <v>Categorical</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>872</v>
+        <v>783</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10564,10 +10401,10 @@
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="4" t="s">
-        <v>873</v>
+        <v>784</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>874</v>
+        <v>785</v>
       </c>
       <c r="F324" s="4" t="s">
         <v>196</v>
@@ -10577,7 +10414,7 @@
         <v>Categorical</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>875</v>
+        <v>786</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10585,10 +10422,10 @@
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
       <c r="D325" s="4" t="s">
-        <v>876</v>
+        <v>787</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>877</v>
+        <v>788</v>
       </c>
       <c r="F325" s="4" t="s">
         <v>196</v>
@@ -10598,7 +10435,7 @@
         <v>Categorical</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>878</v>
+        <v>789</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10606,10 +10443,10 @@
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
       <c r="D326" s="4" t="s">
-        <v>879</v>
+        <v>790</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>880</v>
+        <v>791</v>
       </c>
       <c r="F326" s="4" t="s">
         <v>196</v>
@@ -10619,7 +10456,7 @@
         <v>Categorical</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>881</v>
+        <v>792</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,10 +10464,10 @@
       <c r="B327" s="10"/>
       <c r="C327" s="10"/>
       <c r="D327" s="4" t="s">
-        <v>882</v>
+        <v>793</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>883</v>
+        <v>794</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>196</v>
@@ -10640,7 +10477,7 @@
         <v>Categorical</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>884</v>
+        <v>789</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10648,10 +10485,10 @@
       <c r="B328" s="10"/>
       <c r="C328" s="10"/>
       <c r="D328" s="4" t="s">
-        <v>885</v>
+        <v>795</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>886</v>
+        <v>796</v>
       </c>
       <c r="F328" s="4" t="s">
         <v>196</v>
@@ -10661,180 +10498,172 @@
         <v>Categorical</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>887</v>
+        <v>797</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9"/>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
+      <c r="A329" s="10"/>
+      <c r="B329" s="10"/>
+      <c r="C329" s="10"/>
+      <c r="D329" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H329" s="4" t="str">
+        <f aca="false">IF(OR(F329="Float", G329&lt;&gt;""), "Numerical", "Categorical")</f>
+        <v>Categorical</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="4" t="str">
-        <f aca="false">E330</f>
-        <v>timestamp</v>
+      <c r="A330" s="10"/>
+      <c r="B330" s="10"/>
+      <c r="C330" s="10"/>
+      <c r="D330" s="4" t="s">
+        <v>801</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>45</v>
+        <v>802</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G330" s="4" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="H330" s="4" t="str">
         <f aca="false">IF(OR(F330="Float", G330&lt;&gt;""), "Numerical", "Categorical")</f>
-        <v>Numerical</v>
+        <v>Categorical</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>48</v>
+        <v>803</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="F331" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G331" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="H331" s="4" t="str">
-        <f aca="false">IF(OR(F331="Float", G331&lt;&gt;""), "Numerical", "Categorical")</f>
-        <v>Numerical</v>
-      </c>
-      <c r="I331" s="5" t="s">
-        <v>891</v>
-      </c>
+      <c r="A331" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
+      <c r="I331" s="9"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
-      <c r="D332" s="4" t="s">
-        <v>892</v>
+      <c r="D332" s="4" t="str">
+        <f aca="false">E332</f>
+        <v>timestamp</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>893</v>
+        <v>45</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>890</v>
+        <v>47</v>
       </c>
       <c r="H332" s="4" t="str">
         <f aca="false">IF(OR(F332="Float", G332&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>894</v>
+        <v>48</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="9"/>
-      <c r="H333" s="9"/>
-      <c r="I333" s="9"/>
+      <c r="A333" s="12"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H333" s="4" t="str">
+        <f aca="false">IF(OR(F333="Float", G333&lt;&gt;""), "Numerical", "Categorical")</f>
+        <v>Numerical</v>
+      </c>
+      <c r="I333" s="5" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
+      <c r="A334" s="12"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="12"/>
       <c r="D334" s="4" t="s">
-        <v>45</v>
+        <v>808</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>45</v>
+        <v>809</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>47</v>
+        <v>806</v>
       </c>
       <c r="H334" s="4" t="str">
         <f aca="false">IF(OR(F334="Float", G334&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="10"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E335)</f>
-        <v>SensorCombined_gyro_rad_0</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G335" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H335" s="4" t="str">
-        <f aca="false">IF(OR(F335="Float", G335&lt;&gt;""), "Numerical", "Categorical")</f>
-        <v>Numerical</v>
-      </c>
-      <c r="I335" s="5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B335" s="9"/>
+      <c r="C335" s="9"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
+      <c r="I335" s="9"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
-      <c r="D336" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E336)</f>
-        <v>SensorCombined_gyro_rad_1</v>
+      <c r="D336" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>898</v>
+        <v>45</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="H336" s="4" t="str">
         <f aca="false">IF(OR(F336="Float", G336&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>899</v>
+        <v>48</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,11 +10671,11 @@
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
       <c r="D337" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E337)</f>
-        <v>SensorCombined_gyro_rad_2</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E337)</f>
+        <v>SensorCombined_gyro_rad_0</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>900</v>
+        <v>812</v>
       </c>
       <c r="F337" s="4" t="s">
         <v>58</v>
@@ -10859,107 +10688,107 @@
         <v>Numerical</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="10"/>
       <c r="D338" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E338)</f>
-        <v>SensorCombined_gyro_integral_dt</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E338)</f>
+        <v>SensorCombined_gyro_rad_1</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>902</v>
+        <v>814</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="H338" s="4" t="str">
         <f aca="false">IF(OR(F338="Float", G338&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="10"/>
       <c r="D339" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E339)</f>
-        <v>SensorCombined_accelerometer_timestamp_relative</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>904</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E339)</f>
+        <v>SensorCombined_gyro_rad_2</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>816</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="H339" s="4" t="str">
         <f aca="false">IF(OR(F339="Float", G339&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="10"/>
       <c r="D340" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E340)</f>
-        <v>SensorCombined_accelerometer_m_s2_0</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>906</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E340)</f>
+        <v>SensorCombined_gyro_integral_dt</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H340" s="4" t="str">
         <f aca="false">IF(OR(F340="Float", G340&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I340" s="5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="10"/>
       <c r="D341" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E341)</f>
-        <v>SensorCombined_accelerometer_m_s2_1</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E341)</f>
+        <v>SensorCombined_accelerometer_timestamp_relative</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>908</v>
+        <v>820</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H341" s="4" t="str">
         <f aca="false">IF(OR(F341="Float", G341&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>909</v>
+        <v>821</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10967,11 +10796,11 @@
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
       <c r="D342" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E342)</f>
-        <v>SensorCombined_accelerometer_m_s2_2</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>910</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E342)</f>
+        <v>SensorCombined_accelerometer_m_s2_0</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>822</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>58</v>
@@ -10984,32 +10813,32 @@
         <v>Numerical</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="10"/>
       <c r="D343" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E343)</f>
-        <v>SensorCombined_accelerometer_integral_dt</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>912</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E343)</f>
+        <v>SensorCombined_accelerometer_m_s2_1</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>824</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H343" s="4" t="str">
         <f aca="false">IF(OR(F343="Float", G343&lt;&gt;""), "Numerical", "Categorical")</f>
         <v>Numerical</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>913</v>
+        <v>825</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,43 +10846,49 @@
       <c r="B344" s="10"/>
       <c r="C344" s="10"/>
       <c r="D344" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E344)</f>
-        <v>SensorCombined_accelerometer_clipping</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E344)</f>
+        <v>SensorCombined_accelerometer_m_s2_2</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>914</v>
+        <v>826</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="H344" s="4" t="str">
         <f aca="false">IF(OR(F344="Float", G344&lt;&gt;""), "Numerical", "Categorical")</f>
-        <v>Categorical</v>
+        <v>Numerical</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="10"/>
       <c r="D345" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E345)</f>
-        <v>SensorCombined_gyro_clipping</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E345)</f>
+        <v>SensorCombined_accelerometer_integral_dt</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>916</v>
+        <v>828</v>
       </c>
       <c r="F345" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="G345" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H345" s="4" t="str">
         <f aca="false">IF(OR(F345="Float", G345&lt;&gt;""), "Numerical", "Categorical")</f>
-        <v>Categorical</v>
+        <v>Numerical</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>917</v>
+        <v>829</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,11 +10896,11 @@
       <c r="B346" s="10"/>
       <c r="C346" s="10"/>
       <c r="D346" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E346)</f>
-        <v>SensorCombined_accel_calibration_count</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E346)</f>
+        <v>SensorCombined_accelerometer_clipping</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>918</v>
+        <v>830</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>54</v>
@@ -11075,7 +10910,7 @@
         <v>Categorical</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>919</v>
+        <v>831</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,11 +10918,11 @@
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
       <c r="D347" s="4" t="str">
-        <f aca="false">_xlfn.CONCAT($A$333,"_",E347)</f>
-        <v>SensorCombined_gyro_calibration_count</v>
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E347)</f>
+        <v>SensorCombined_gyro_clipping</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>920</v>
+        <v>832</v>
       </c>
       <c r="F347" s="4" t="s">
         <v>54</v>
@@ -11097,11 +10932,55 @@
         <v>Categorical</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>921</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="10"/>
+      <c r="B348" s="10"/>
+      <c r="C348" s="10"/>
+      <c r="D348" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E348)</f>
+        <v>SensorCombined_accel_calibration_count</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H348" s="4" t="str">
+        <f aca="false">IF(OR(F348="Float", G348&lt;&gt;""), "Numerical", "Categorical")</f>
+        <v>Categorical</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="10"/>
+      <c r="B349" s="10"/>
+      <c r="C349" s="10"/>
+      <c r="D349" s="4" t="str">
+        <f aca="false">_xlfn.CONCAT($A$335,"_",E349)</f>
+        <v>SensorCombined_gyro_calibration_count</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H349" s="4" t="str">
+        <f aca="false">IF(OR(F349="Float", G349&lt;&gt;""), "Numerical", "Categorical")</f>
+        <v>Categorical</v>
+      </c>
+      <c r="I349" s="5" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="346">
+  <mergeCells count="348">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -11429,13 +11308,13 @@
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A327:C327"/>
     <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:I329"/>
+    <mergeCell ref="A329:C329"/>
     <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A331:I331"/>
     <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:I333"/>
+    <mergeCell ref="A333:C333"/>
     <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A335:I335"/>
     <mergeCell ref="A336:C336"/>
     <mergeCell ref="A337:C337"/>
     <mergeCell ref="A338:C338"/>
@@ -11448,6 +11327,8 @@
     <mergeCell ref="A345:C345"/>
     <mergeCell ref="A346:C346"/>
     <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A349:C349"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
